--- a/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42104F38-F50C-492E-AED4-41B85E7E8D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC97778D-8F8B-49CA-B762-02EDD74197F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="5340" windowWidth="22290" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary, Instructions" sheetId="5" r:id="rId1"/>
@@ -4233,10 +4233,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4558,53 +4554,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q20" dT="2020-06-19T04:11:21.93" personId="{00000000-0000-0000-0000-000000000000}" id="{AB865128-CEDA-420A-B766-61155C674DDA}">
-    <text>TIS世古
-「"」の対応が取れていない箇所があります。
-「"Names of environment dependency item setting files"」(filesの後の「"」が抜けている)が正しいのかと思うのですが、如何でしょうか？</text>
-  </threadedComment>
-  <threadedComment ref="Q20" dT="2020-07-09T07:49:16.59" personId="{00000000-0000-0000-0000-000000000000}" id="{7EE28DA3-2B8A-4C06-A89E-1C957A6F8F3A}" parentId="{AB865128-CEDA-420A-B766-61155C674DDA}">
-    <text>申し訳ございません。修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H23" dT="2020-06-19T05:02:02.11" personId="{00000000-0000-0000-0000-000000000000}" id="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
-    <text>TIS世古
-図形オブジェクト中の「Variable name:」ですが、C4セルの内容と合わせて「Variable」としてください。
-この箇所は、C4セルの項目説明だからです。</text>
-  </threadedComment>
-  <threadedComment ref="H23" dT="2020-07-09T07:50:18.26" personId="{00000000-0000-0000-0000-000000000000}" id="{6469421F-DE7F-46FC-834E-56279284A318}" parentId="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
-    <text>修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H24" dT="2020-06-19T05:02:48.45" personId="{00000000-0000-0000-0000-000000000000}" id="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
-    <text>TIS世古
-図形オブジェクト中の「Values: 」ですが、E4セルの内容と合わせて「Variable」としてください。
-この箇所は、E4セルの項目説明だからです。</text>
-  </threadedComment>
-  <threadedComment ref="H24" dT="2020-07-09T07:51:53.21" personId="{00000000-0000-0000-0000-000000000000}" id="{812724F9-AFC4-4AAE-BF19-2C5923CAB025}" parentId="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
-    <text>「Variable」は上のほうの見出しですが、「Value」でしょうか？</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D12" dT="2020-06-19T05:19:06.13" personId="{00000000-0000-0000-0000-000000000000}" id="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
-    <text>TIS世古
-「sending)」の前に「(」がありません。
-記述漏れでしょうか？</text>
-  </threadedComment>
-  <threadedComment ref="D12" dT="2020-07-09T07:53:03.20" personId="{00000000-0000-0000-0000-000000000000}" id="{C700B808-8371-4671-98BE-9BC91C8EC40D}" parentId="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
-    <text>申し訳ございません。修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
@@ -5084,9 +5033,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC97778D-8F8B-49CA-B762-02EDD74197F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42104F38-F50C-492E-AED4-41B85E7E8D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="5340" windowWidth="22290" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary, Instructions" sheetId="5" r:id="rId1"/>
@@ -4233,6 +4233,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4554,6 +4558,53 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q20" dT="2020-06-19T04:11:21.93" personId="{00000000-0000-0000-0000-000000000000}" id="{AB865128-CEDA-420A-B766-61155C674DDA}">
+    <text>TIS世古
+「"」の対応が取れていない箇所があります。
+「"Names of environment dependency item setting files"」(filesの後の「"」が抜けている)が正しいのかと思うのですが、如何でしょうか？</text>
+  </threadedComment>
+  <threadedComment ref="Q20" dT="2020-07-09T07:49:16.59" personId="{00000000-0000-0000-0000-000000000000}" id="{7EE28DA3-2B8A-4C06-A89E-1C957A6F8F3A}" parentId="{AB865128-CEDA-420A-B766-61155C674DDA}">
+    <text>申し訳ございません。修正致しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H23" dT="2020-06-19T05:02:02.11" personId="{00000000-0000-0000-0000-000000000000}" id="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
+    <text>TIS世古
+図形オブジェクト中の「Variable name:」ですが、C4セルの内容と合わせて「Variable」としてください。
+この箇所は、C4セルの項目説明だからです。</text>
+  </threadedComment>
+  <threadedComment ref="H23" dT="2020-07-09T07:50:18.26" personId="{00000000-0000-0000-0000-000000000000}" id="{6469421F-DE7F-46FC-834E-56279284A318}" parentId="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
+    <text>修正致しました。</text>
+  </threadedComment>
+  <threadedComment ref="H24" dT="2020-06-19T05:02:48.45" personId="{00000000-0000-0000-0000-000000000000}" id="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
+    <text>TIS世古
+図形オブジェクト中の「Values: 」ですが、E4セルの内容と合わせて「Variable」としてください。
+この箇所は、E4セルの項目説明だからです。</text>
+  </threadedComment>
+  <threadedComment ref="H24" dT="2020-07-09T07:51:53.21" personId="{00000000-0000-0000-0000-000000000000}" id="{812724F9-AFC4-4AAE-BF19-2C5923CAB025}" parentId="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
+    <text>「Variable」は上のほうの見出しですが、「Value」でしょうか？</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D12" dT="2020-06-19T05:19:06.13" personId="{00000000-0000-0000-0000-000000000000}" id="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
+    <text>TIS世古
+「sending)」の前に「(」がありません。
+記述漏れでしょうか？</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2020-07-09T07:53:03.20" personId="{00000000-0000-0000-0000-000000000000}" id="{C700B808-8371-4671-98BE-9BC91C8EC40D}" parentId="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
+    <text>申し訳ございません。修正致しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
@@ -5033,7 +5084,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42104F38-F50C-492E-AED4-41B85E7E8D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DCDDC-5FC7-4E29-AD7F-715512B8FA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary, Instructions" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>JAVA_HOME_PATH</t>
   </si>
@@ -249,19 +249,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Refer to [Shell script development standards] -&gt; [Script creation policies] for information on environment dependency item setting files for shell script execution.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Environment dependency items are managed according to the environment dependency item management policy.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>This file is only used to manage environment dependency items that are required for shell execution.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Refer to [Shell script development standards] -&gt; [Appendix: Nablarch environment dependency item management policy] sheet for information on the environment dependency item management policy.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1343,76 +1335,6 @@
             </a:rPr>
             <a:t>The common shell script directory is the root directory of a directory used to store shells and setting files for common usage.</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>       </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Refer to [Shell script development standards]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t> -&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>[File types associated with shell scripts].</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4608,7 +4530,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4639,8 +4561,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4649,145 +4571,135 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="6" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="12"/>
     </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C17" s="1" t="s">
+    <row r="18" spans="4:28" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>69</v>
       </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="46"/>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="D19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="10" t="s">
+    <row r="19" spans="4:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="3:28" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="46"/>
-    </row>
-    <row r="21" spans="3:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="9">
-        <v>2</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="46"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="Q20:AB20"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="Q21:AB21"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="Q18:AB18"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="Q19:AB19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -4812,12 +4724,12 @@
   <sheetData>
     <row r="1" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4874,13 +4786,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -4888,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -4899,7 +4811,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1</v>
@@ -4910,7 +4822,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>48</v>
@@ -4921,7 +4833,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>23</v>
@@ -4932,7 +4844,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>24</v>
@@ -4943,7 +4855,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>25</v>
@@ -4954,7 +4866,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>26</v>
@@ -4970,7 +4882,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>27</v>
@@ -4986,7 +4898,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>43</v>
@@ -4997,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>45</v>
@@ -5008,7 +4920,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>46</v>
@@ -5019,7 +4931,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>47</v>
@@ -5030,7 +4942,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>52</v>
@@ -5041,7 +4953,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>53</v>
@@ -5052,7 +4964,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>49</v>
@@ -5063,7 +4975,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>50</v>
@@ -5084,9 +4996,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5104,13 +5014,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5118,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>28</v>
@@ -5129,7 +5039,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>29</v>
@@ -5140,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>30</v>
@@ -5151,7 +5061,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>31</v>
@@ -5162,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>32</v>
@@ -5173,7 +5083,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>33</v>
@@ -5184,7 +5094,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>30</v>
@@ -5195,7 +5105,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>34</v>
@@ -5206,7 +5116,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>35</v>
@@ -5217,7 +5127,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>36</v>
@@ -5228,7 +5138,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>37</v>
@@ -5239,7 +5149,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>38</v>
@@ -5250,7 +5160,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>39</v>

--- a/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
+++ b/en/Batch-Development-Assistance/Shell_Common_Settings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DCDDC-5FC7-4E29-AD7F-715512B8FA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11219202-5D85-45A7-A328-FC8226ADF323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary, Instructions" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,17 @@
     <sheet name="batch_dir.config" sheetId="1" r:id="rId3"/>
     <sheet name="java_env.config" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1568,58 +1578,15 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Description: Description of the variable (write as a comment in the shell).TIS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>世古</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>TIS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>世古</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>TIS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>世古</a:t>
-          </a:r>
+            <a:t>Description: Description of the variable (write as a comment in the shell).</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -4155,10 +4122,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4480,53 +4443,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q20" dT="2020-06-19T04:11:21.93" personId="{00000000-0000-0000-0000-000000000000}" id="{AB865128-CEDA-420A-B766-61155C674DDA}">
-    <text>TIS世古
-「"」の対応が取れていない箇所があります。
-「"Names of environment dependency item setting files"」(filesの後の「"」が抜けている)が正しいのかと思うのですが、如何でしょうか？</text>
-  </threadedComment>
-  <threadedComment ref="Q20" dT="2020-07-09T07:49:16.59" personId="{00000000-0000-0000-0000-000000000000}" id="{7EE28DA3-2B8A-4C06-A89E-1C957A6F8F3A}" parentId="{AB865128-CEDA-420A-B766-61155C674DDA}">
-    <text>申し訳ございません。修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H23" dT="2020-06-19T05:02:02.11" personId="{00000000-0000-0000-0000-000000000000}" id="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
-    <text>TIS世古
-図形オブジェクト中の「Variable name:」ですが、C4セルの内容と合わせて「Variable」としてください。
-この箇所は、C4セルの項目説明だからです。</text>
-  </threadedComment>
-  <threadedComment ref="H23" dT="2020-07-09T07:50:18.26" personId="{00000000-0000-0000-0000-000000000000}" id="{6469421F-DE7F-46FC-834E-56279284A318}" parentId="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
-    <text>修正致しました。</text>
-  </threadedComment>
-  <threadedComment ref="H24" dT="2020-06-19T05:02:48.45" personId="{00000000-0000-0000-0000-000000000000}" id="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
-    <text>TIS世古
-図形オブジェクト中の「Values: 」ですが、E4セルの内容と合わせて「Variable」としてください。
-この箇所は、E4セルの項目説明だからです。</text>
-  </threadedComment>
-  <threadedComment ref="H24" dT="2020-07-09T07:51:53.21" personId="{00000000-0000-0000-0000-000000000000}" id="{812724F9-AFC4-4AAE-BF19-2C5923CAB025}" parentId="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
-    <text>「Variable」は上のほうの見出しですが、「Value」でしょうか？</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D12" dT="2020-06-19T05:19:06.13" personId="{00000000-0000-0000-0000-000000000000}" id="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
-    <text>TIS世古
-「sending)」の前に「(」がありません。
-記述漏れでしょうか？</text>
-  </threadedComment>
-  <threadedComment ref="D12" dT="2020-07-09T07:53:03.20" personId="{00000000-0000-0000-0000-000000000000}" id="{C700B808-8371-4671-98BE-9BC91C8EC40D}" parentId="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
-    <text>申し訳ございません。修正致しました。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
@@ -4534,68 +4450,68 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="11" width="5.125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="5.625" style="1"/>
+    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="11" width="5.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
@@ -4628,7 +4544,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="4:28" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:28" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="9">
         <v>1</v>
       </c>
@@ -4661,7 +4577,7 @@
       <c r="AA18" s="45"/>
       <c r="AB18" s="46"/>
     </row>
-    <row r="19" spans="4:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="9">
         <v>2</v>
       </c>
@@ -4715,19 +4631,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="10" width="5.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="5.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>74</v>
       </c>
@@ -4770,21 +4686,21 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="5.625" style="1"/>
+    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>75</v>
       </c>
@@ -4795,7 +4711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +4722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -4817,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
@@ -4828,7 +4744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>40</v>
       </c>
@@ -4839,7 +4755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="27" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C9" s="30" t="s">
         <v>40</v>
       </c>
@@ -4850,7 +4766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
         <v>40</v>
       </c>
@@ -4861,7 +4777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="40.200000000000003" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
         <v>41</v>
       </c>
@@ -4877,7 +4793,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="s">
         <v>41</v>
       </c>
@@ -4893,7 +4809,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="27" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
@@ -4904,7 +4820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
@@ -4915,7 +4831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -4926,7 +4842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
@@ -4937,7 +4853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="41" t="s">
         <v>54</v>
       </c>
@@ -4948,7 +4864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5" ht="27" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C18" s="33" t="s">
         <v>55</v>
       </c>
@@ -4959,7 +4875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C19" s="36" t="s">
         <v>56</v>
       </c>
@@ -4970,7 +4886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
         <v>51</v>
       </c>
@@ -4981,7 +4897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="3:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -4998,21 +4914,21 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="5.625" style="1"/>
+    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>75</v>
       </c>
@@ -5023,7 +4939,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
@@ -5034,7 +4950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
@@ -5045,7 +4961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
@@ -5056,7 +4972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
@@ -5067,7 +4983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -5078,7 +4994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -5089,7 +5005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -5100,7 +5016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
@@ -5111,7 +5027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
@@ -5122,7 +5038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -5133,7 +5049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
@@ -5144,7 +5060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5155,7 +5071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
